--- a/安排190328-2.xlsx
+++ b/安排190328-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8408F3-8E58-4814-A856-FA054EECDD3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D786F48-BE21-4E75-8B6F-07531AEB1060}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>读入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>程序图标ICON绘制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张承扬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主函数流程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -663,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1BC70-5743-480A-95CE-785077CB07EB}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -706,29 +718,29 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -740,7 +752,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -752,72 +764,72 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -826,19 +838,19 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -850,43 +862,43 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>21</v>
@@ -898,36 +910,36 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -939,96 +951,108 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>52</v>
+      <c r="A30" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
